--- a/Documentation/Parameter Dictionary.xlsx
+++ b/Documentation/Parameter Dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="131">
   <si>
     <t>Purpose: Dictionary for policy_simulation() function parameters</t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>Optional parameter. If not given, no output csv created</t>
+  </si>
+  <si>
+    <t>Optional parameter. If not given, no random seed set</t>
   </si>
 </sst>
 </file>
@@ -790,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,11 +1627,11 @@
       <c r="D47" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>99</v>
+      <c r="F47" s="4">
+        <v>123</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">

--- a/Documentation/Parameter Dictionary.xlsx
+++ b/Documentation/Parameter Dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="135">
   <si>
     <t>Purpose: Dictionary for policy_simulation() function parameters</t>
   </si>
@@ -365,9 +365,6 @@
     <t>Whether to include self employed workers in ACS data set</t>
   </si>
   <si>
-    <t>If specified, take a proportion of ACS to speed up runtime</t>
-  </si>
-  <si>
     <t>Proportion of ACS to use</t>
   </si>
   <si>
@@ -417,6 +414,21 @@
   </si>
   <si>
     <t>Optional parameter. If not given, no random seed set</t>
+  </si>
+  <si>
+    <t>compar_states</t>
+  </si>
+  <si>
+    <t>output for comparing to states with existing programs</t>
+  </si>
+  <si>
+    <t>If specified, take a random sample of specified proportion of ACS to speed up runtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> week_bene_min</t>
+  </si>
+  <si>
+    <t>minimum guaranteed weekly benefits for participants</t>
   </si>
 </sst>
 </file>
@@ -513,8 +525,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:G54" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A3:G54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:G55" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A3:G55"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Parameter" dataDxfId="6"/>
     <tableColumn id="2" name="Description" dataDxfId="5"/>
@@ -791,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +815,7 @@
     <col min="2" max="2" width="69.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="59.140625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
@@ -900,7 +912,7 @@
         <v>49</v>
       </c>
       <c r="F6" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -935,7 +947,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>51</v>
@@ -965,7 +977,7 @@
         <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>53</v>
@@ -982,7 +994,7 @@
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>53</v>
@@ -1064,7 +1076,7 @@
         <v>96</v>
       </c>
       <c r="F16" s="4">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1084,7 +1096,7 @@
         <v>96</v>
       </c>
       <c r="F17" s="4">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1104,7 +1116,7 @@
         <v>96</v>
       </c>
       <c r="F18" s="4">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1124,7 +1136,7 @@
         <v>96</v>
       </c>
       <c r="F19" s="4">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1144,7 +1156,7 @@
         <v>96</v>
       </c>
       <c r="F20" s="4">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1164,7 +1176,7 @@
         <v>96</v>
       </c>
       <c r="F21" s="4">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1631,7 +1643,7 @@
         <v>123</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1696,10 +1708,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>53</v>
@@ -1708,59 +1720,86 @@
         <v>54</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>99</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D53" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>99</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D54" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>99</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" s="2"/>
+      <c r="D55" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Parameter Dictionary.xlsx
+++ b/Documentation/Parameter Dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="5520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="4950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="142">
   <si>
     <t>Purpose: Dictionary for policy_simulation() function parameters</t>
   </si>
@@ -429,6 +429,27 @@
   </si>
   <si>
     <t>minimum guaranteed weekly benefits for participants</t>
+  </si>
+  <si>
+    <t>Imputation Method</t>
+  </si>
+  <si>
+    <t>Not in Form</t>
+  </si>
+  <si>
+    <t>Wage Replacement Ratio</t>
+  </si>
+  <si>
+    <t>Form Tab</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>Main Form</t>
+  </si>
+  <si>
+    <t>Program</t>
   </si>
 </sst>
 </file>
@@ -525,8 +546,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:G55" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A3:G55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C3:I55" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="C3:I55"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Parameter" dataDxfId="6"/>
     <tableColumn id="2" name="Description" dataDxfId="5"/>
@@ -803,1002 +824,1028 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="69.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="69.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="46.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="4" t="b">
+      <c r="H6" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="D7" s="5" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="F7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="4">
+      <c r="H8" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="5" t="b">
+      <c r="F9" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="4" t="b">
+      <c r="H9" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="D10" s="5" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+      <c r="F10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="4">
+      <c r="H11" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="4">
+      <c r="H12" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="4">
+      <c r="H13" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="5" t="b">
+      <c r="F14" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="4" t="b">
+      <c r="H14" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="D15" s="5" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+      <c r="F15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="4">
+      <c r="H16" s="4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="4">
+      <c r="H17" s="4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="4">
+      <c r="H18" s="4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="4">
+      <c r="H19" s="4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="4">
+      <c r="H20" s="4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="4">
+      <c r="H21" s="4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="4">
+      <c r="H22" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="4">
+      <c r="H23" s="4">
         <v>0</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="3:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="5" t="b">
+      <c r="F24" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="4" t="b">
+      <c r="H24" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="D25" s="5" t="s">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="2"/>
+      <c r="F25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="3:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="4">
+      <c r="H26" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="4">
+      <c r="H27" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="4">
+      <c r="H28" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="4">
+      <c r="H29" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="4">
+      <c r="H30" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="4">
+      <c r="H31" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="4">
+      <c r="H32" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F33" s="4">
+      <c r="H33" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="4">
+      <c r="H34" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="4">
+      <c r="H35" s="4">
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="4">
+      <c r="H36" s="4">
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="4">
+      <c r="H37" s="4">
         <v>360</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="5" t="s">
+      <c r="E38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F38" s="4">
+      <c r="H38" s="4">
         <v>1000000</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="E39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="5" t="b">
+      <c r="F40" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F40" s="4" t="b">
+      <c r="H40" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="D41" s="5" t="s">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D41" s="2"/>
+      <c r="F41" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="E42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="H42" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="E43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="E44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="E45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="H45" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="5" t="s">
+      <c r="E46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F46" s="4">
+      <c r="H46" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="5" t="s">
+      <c r="E47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F47" s="4">
+      <c r="H47" s="4">
         <v>123</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="5" t="b">
+      <c r="F48" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="H48" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
-      <c r="D49" s="5" t="s">
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D49" s="2"/>
+      <c r="F49" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="5" t="b">
+      <c r="F50" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="H50" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="2"/>
-      <c r="D51" s="5" t="s">
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D51" s="2"/>
+      <c r="F51" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52" s="5" t="s">
+      <c r="E52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="H52" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="F53" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="H53" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="F54" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
-      <c r="D55" s="5" t="s">
+    <row r="55" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D55" s="2"/>
+      <c r="F55" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" s="5" t="s">
+      <c r="E56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F56" s="4">
+      <c r="H56" s="4">
         <v>0</v>
       </c>
     </row>

--- a/Documentation/Parameter Dictionary.xlsx
+++ b/Documentation/Parameter Dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="4950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="186">
   <si>
     <t>Purpose: Dictionary for policy_simulation() function parameters</t>
   </si>
@@ -47,9 +47,6 @@
     <t xml:space="preserve"> leaveprogram </t>
   </si>
   <si>
-    <t xml:space="preserve"> bene_level </t>
-  </si>
-  <si>
     <t xml:space="preserve"> proportion of pay received as part of program participation</t>
   </si>
   <si>
@@ -203,6 +200,12 @@
     <t xml:space="preserve">topoff_min_length </t>
   </si>
   <si>
+    <t>Min length of leave required for top-off behavrior</t>
+  </si>
+  <si>
+    <t>proportion of employers engaging in top-off substitution of paid leave with program benefits</t>
+  </si>
+  <si>
     <t>Min length in days</t>
   </si>
   <si>
@@ -347,15 +350,9 @@
     <t>[Long list of 19 variables]</t>
   </si>
   <si>
-    <t>Does not need to be in GUI. We will program additional valid values once we program alternative methods</t>
-  </si>
-  <si>
     <t xml:space="preserve">Does not need to be in GUI.  Default is a sample set for Nearest Neighbor, K=1. </t>
   </si>
   <si>
-    <t>GOVERNMENT</t>
-  </si>
-  <si>
     <t>SELFEMP</t>
   </si>
   <si>
@@ -365,91 +362,232 @@
     <t>Whether to include self employed workers in ACS data set</t>
   </si>
   <si>
-    <t>Proportion of ACS to use</t>
-  </si>
-  <si>
-    <t>sample_prop</t>
-  </si>
-  <si>
-    <t>Optional parameter. If not given, full sample is used</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t>filename to save csv file of final ACS dataset</t>
-  </si>
-  <si>
-    <t>Any string</t>
-  </si>
-  <si>
-    <t>filename to save csv as</t>
-  </si>
-  <si>
-    <t>Optional parameter. If not given, csv is not saved</t>
-  </si>
-  <si>
-    <t>Account for a behavioral cost for applying to the program in the simulation</t>
-  </si>
-  <si>
-    <t>proportion of employers engaging in top-off behavior: substituting employer paid leave with program benefits</t>
-  </si>
-  <si>
-    <t>Min length of leave required for top-off behavior</t>
-  </si>
-  <si>
-    <t>output_stats</t>
-  </si>
-  <si>
-    <t>specification of summary statistics to output in csv</t>
-  </si>
-  <si>
-    <t>standard</t>
-  </si>
-  <si>
-    <t>preset standard summary stats</t>
-  </si>
-  <si>
-    <t>Optional parameter. If not given, no output csv created</t>
-  </si>
-  <si>
-    <t>Optional parameter. If not given, no random seed set</t>
-  </si>
-  <si>
-    <t>compar_states</t>
-  </si>
-  <si>
-    <t>output for comparing to states with existing programs</t>
-  </si>
-  <si>
-    <t>If specified, take a random sample of specified proportion of ACS to speed up runtime</t>
+    <t>Imputation Method</t>
+  </si>
+  <si>
+    <t>Leave Program</t>
+  </si>
+  <si>
+    <t>Wage Replacement Ratio</t>
+  </si>
+  <si>
+    <t>Benefit Effect</t>
+  </si>
+  <si>
+    <t>Topoff Rate</t>
+  </si>
+  <si>
+    <t>Clone Factor</t>
+  </si>
+  <si>
+    <t>Extend Days</t>
+  </si>
+  <si>
+    <t>Topoff Minimum Length</t>
+  </si>
+  <si>
+    <t>Weekly Dependent Allowance</t>
+  </si>
+  <si>
+    <t>Needers Fully Participate</t>
+  </si>
+  <si>
+    <t>Own Health</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>Behavior</t>
+  </si>
+  <si>
+    <t>Ill Spouse</t>
+  </si>
+  <si>
+    <t>Ill Child</t>
+  </si>
+  <si>
+    <t>Ill Parent</t>
+  </si>
+  <si>
+    <t>Maternity Disability</t>
+  </si>
+  <si>
+    <t>Bonding</t>
+  </si>
+  <si>
+    <t>Waiting Perioid</t>
+  </si>
+  <si>
+    <t>Base Extension Effect</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>Extend Probability</t>
+  </si>
+  <si>
+    <t>Extend Proportion</t>
+  </si>
+  <si>
+    <t>Bonding or Ill Relative</t>
+  </si>
+  <si>
+    <t>Own Health or Maternity Disability</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Weekly Benefit Cap</t>
+  </si>
+  <si>
+    <t>Weekly Benefit Cap Proportion</t>
+  </si>
+  <si>
+    <t>FMLA Protection</t>
+  </si>
+  <si>
+    <t>Annual Earnings</t>
+  </si>
+  <si>
+    <t>Usual Weeks Worked</t>
+  </si>
+  <si>
+    <t>Usual Hours Worked</t>
+  </si>
+  <si>
+    <t>Minimum Firm Size</t>
+  </si>
+  <si>
+    <t>Weight Factor</t>
+  </si>
+  <si>
+    <t>Random Seed</t>
+  </si>
+  <si>
+    <t>GUI Input Label</t>
+  </si>
+  <si>
+    <t>Logit Regression</t>
+  </si>
+  <si>
+    <t>logit</t>
+  </si>
+  <si>
+    <t>Location in GUI</t>
+  </si>
+  <si>
+    <t>FEDGOV</t>
+  </si>
+  <si>
+    <t>STATEGOV</t>
+  </si>
+  <si>
+    <t>LOCALGOV</t>
+  </si>
+  <si>
+    <t>Weekly Benefit Minimum</t>
   </si>
   <si>
     <t xml:space="preserve"> week_bene_min</t>
   </si>
   <si>
-    <t>minimum guaranteed weekly benefits for participants</t>
-  </si>
-  <si>
-    <t>Imputation Method</t>
-  </si>
-  <si>
-    <t>Not in Form</t>
-  </si>
-  <si>
-    <t>Wage Replacement Ratio</t>
-  </si>
-  <si>
-    <t>Form Tab</t>
-  </si>
-  <si>
-    <t>Field Name</t>
-  </si>
-  <si>
-    <t>Main Form</t>
-  </si>
-  <si>
-    <t>Program</t>
+    <t xml:space="preserve"> min weekly benefits that can be collected</t>
+  </si>
+  <si>
+    <t>Whether to apply simulation of behavioral cost to applying to state program</t>
+  </si>
+  <si>
+    <t>List of numbers</t>
+  </si>
+  <si>
+    <t>formula_prop_cuts</t>
+  </si>
+  <si>
+    <t>formula_value_cuts</t>
+  </si>
+  <si>
+    <t>Specification for formulaic benefits based on state mean wage</t>
+  </si>
+  <si>
+    <t>Specification for formulaic benefits based on absolute wage values</t>
+  </si>
+  <si>
+    <t>formula_bene_levels</t>
+  </si>
+  <si>
+    <t>Proportion of pay those under each cut receive</t>
+  </si>
+  <si>
+    <t>Each value specifies a cut level</t>
+  </si>
+  <si>
+    <t>Proportion of pay of each bucket in cut</t>
+  </si>
+  <si>
+    <t>&gt;=0, in ascending order</t>
+  </si>
+  <si>
+    <t>&gt;=0,  in ascending order</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> base_bene_level </t>
+  </si>
+  <si>
+    <t>elig_rule_logic</t>
+  </si>
+  <si>
+    <t>Description of the logic used when multiple eligibility criteria are specified.</t>
+  </si>
+  <si>
+    <t>This will require some thinking about when designing GUI</t>
+  </si>
+  <si>
+    <t>Valid logical string for generating eligible worker variabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This will require some thinking about when designing GUI.
+Optional parameter. If not given, all participants get base_bene_level value.
+Exactly one of formula_prop_cuts, formula_value_cuts must be specified with this parameter. formula_bene_levels should be 1 greater than the  length of the specified parameter. Examples of specification of these parameters:
+- formula_prop_cuts: (.3, .5, 1.2), formula_bene_levels: (.9, .8, .7, .5)
+- formula_value_cuts: (10000, 30000, 50000), formula_bene_levels:  (.9, .8, .7, .5)
+</t>
+  </si>
+  <si>
+    <t>This will require some thinking about when designing GUI.
+Optional parameter. If not given, all participants get base_bene_level value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> own_elig_adj </t>
+  </si>
+  <si>
+    <t>illspouse_elig_adj</t>
+  </si>
+  <si>
+    <t>illchild_elig_adj</t>
+  </si>
+  <si>
+    <t>illparent_elig_adj</t>
+  </si>
+  <si>
+    <t>matdis_elig_adj</t>
+  </si>
+  <si>
+    <t>bond_elig_adj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user-supplied eligibility adjustment for a given type of leave. </t>
+  </si>
+  <si>
+    <t>1 is no adjustment</t>
+  </si>
+  <si>
+    <t>Simulates lower type-specific eligibility among the population. Differs from uptake; uptake is overriden by other participation simulation modifiers, where adj_elig is not</t>
   </si>
 </sst>
 </file>
@@ -504,7 +642,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="11">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -522,6 +660,12 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -546,10 +690,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C3:I55" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="C3:I55"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Parameter" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I67" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A3:I67"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="GUI Input Label" dataDxfId="8"/>
+    <tableColumn id="8" name="Location in GUI" dataDxfId="7"/>
+    <tableColumn id="9" name="Parameter" dataDxfId="6"/>
     <tableColumn id="2" name="Description" dataDxfId="5"/>
     <tableColumn id="3" name="Value type" dataDxfId="4"/>
     <tableColumn id="4" name="Valid Values" dataDxfId="3"/>
@@ -824,250 +970,259 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21" style="1" customWidth="1"/>
+    <col min="2" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="69.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="46.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="40.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="59.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="71.28515625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>136</v>
-      </c>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="F8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="2"/>
-      <c r="F7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="H10" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="F11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
-      <c r="F10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="H12" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>60</v>
@@ -1076,258 +1231,334 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D15" s="2"/>
-      <c r="F15" s="5" t="s">
-        <v>43</v>
+      <c r="E15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
+      <c r="H15" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="F16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H17" s="4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H18" s="4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H19" s="4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H20" s="4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="G21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H21" s="4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
-      <c r="I23" s="1" t="s">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="24" spans="3:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D25" s="2"/>
-      <c r="F25" s="5" t="s">
-        <v>43</v>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="3:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="H25" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
+      <c r="F26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>83</v>
@@ -1336,517 +1567,885 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="C28" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>84</v>
       </c>
       <c r="H28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="C29" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>71</v>
       </c>
+      <c r="G29" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H29" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H30" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H31" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H32" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="C33" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H33" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="C34" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H34" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="C35" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H35" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="C36" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H36" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="C37" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H38" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="H40" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H37" s="4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H38" s="4">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I39" s="1" t="s">
+      <c r="D42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H42" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="2"/>
+      <c r="F43" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="40" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C40" s="1" t="s">
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H40" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D41" s="2"/>
-      <c r="F41" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D44" s="4" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>71</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="C45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="E47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F45" s="5" t="s">
+      <c r="D48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="4" t="s">
+      <c r="H48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H46" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="1" t="s">
+      <c r="D49" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H47" s="4">
-        <v>123</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="1" t="s">
+      <c r="E49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F48" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D49" s="2"/>
-      <c r="F49" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G49" s="1" t="s">
+      <c r="E50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F50" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="H50" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D51" s="2"/>
       <c r="F51" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="H52" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="2"/>
       <c r="F53" s="5" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
+      </c>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>153</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>126</v>
+        <v>50</v>
+      </c>
+      <c r="F54" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
       <c r="D55" s="2"/>
       <c r="F55" s="5" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="1" t="s">
-        <v>133</v>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>154</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F56" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="2"/>
+      <c r="F57" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F60" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H56" s="4">
-        <v>0</v>
+      <c r="G60" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H61" s="5"/>
+      <c r="I61" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H62" s="4">
+        <v>1</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H63" s="4">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H64" s="4">
+        <v>1</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H65" s="4">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H66" s="4">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H67" s="4">
+        <v>1</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Parameter Dictionary.xlsx
+++ b/Documentation/Parameter Dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="193">
   <si>
     <t>Purpose: Dictionary for policy_simulation() function parameters</t>
   </si>
@@ -588,6 +588,27 @@
   </si>
   <si>
     <t>Simulates lower type-specific eligibility among the population. Differs from uptake; uptake is overriden by other participation simulation modifiers, where adj_elig is not</t>
+  </si>
+  <si>
+    <t>Number of nearest neighbors to take</t>
+  </si>
+  <si>
+    <t>KNN_multi method only. Number of neighbors to take for imputation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only needed when "KNN_multi" is the selected imputation method </t>
+  </si>
+  <si>
+    <t>kval</t>
+  </si>
+  <si>
+    <t>KNN_multi</t>
+  </si>
+  <si>
+    <t>Nearest Neighbor, K&gt;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '(earnings &amp; weeks &amp; ann_hours &amp; minsize)'</t>
   </si>
 </sst>
 </file>
@@ -690,8 +711,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I67" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A3:I67"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I69" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A3:I69"/>
   <tableColumns count="9">
     <tableColumn id="1" name="GUI Input Label" dataDxfId="8"/>
     <tableColumn id="8" name="Location in GUI" dataDxfId="7"/>
@@ -970,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,183 +1070,171 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>45</v>
-      </c>
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="4" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>108</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="4" t="s">
-        <v>150</v>
+      <c r="F6" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="4" t="b">
+      <c r="H8" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="F8" s="5" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="F9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="5" t="b">
+      <c r="F11" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="4" t="b">
+      <c r="H11" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="F11" s="5" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="F12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H13" s="4">
         <v>0</v>
@@ -1233,25 +1242,25 @@
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H14" s="4">
         <v>0</v>
@@ -1259,77 +1268,77 @@
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="5" t="b">
+      <c r="F16" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="4" t="b">
+      <c r="H16" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="F16" s="5" t="s">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="F17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>96</v>
@@ -1349,13 +1358,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>96</v>
@@ -1375,13 +1384,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>96</v>
@@ -1401,13 +1410,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>96</v>
@@ -1427,13 +1436,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>96</v>
@@ -1453,141 +1462,141 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>72</v>
+        <v>53</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="H23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="H24" s="4">
         <v>0</v>
       </c>
-      <c r="I24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="5" t="b">
+      <c r="F26" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H25" s="4" t="b">
+      <c r="H26" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
-      <c r="F26" s="5" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
+      <c r="F27" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H28" s="4">
         <v>0</v>
@@ -1595,62 +1604,65 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H29" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="H30" s="4">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>92</v>
@@ -1667,13 +1679,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>92</v>
@@ -1690,13 +1702,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>92</v>
@@ -1713,13 +1725,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>92</v>
@@ -1736,13 +1748,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>92</v>
@@ -1759,16 +1771,16 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>52</v>
@@ -1777,21 +1789,21 @@
         <v>72</v>
       </c>
       <c r="H36" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>52</v>
@@ -1800,21 +1812,21 @@
         <v>72</v>
       </c>
       <c r="H37" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>52</v>
@@ -1823,161 +1835,158 @@
         <v>72</v>
       </c>
       <c r="H38" s="4">
-        <v>360</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H39" s="4">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>105</v>
+        <v>71</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1000000</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" s="5" t="s">
+      <c r="E42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H42" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F42" s="5" t="b">
+      <c r="F43" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H42" s="4" t="b">
+      <c r="H43" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="2"/>
-      <c r="F43" s="5" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="2"/>
+      <c r="F44" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>100</v>
@@ -1988,16 +1997,16 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>52</v>
@@ -2014,16 +2023,16 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>52</v>
@@ -2040,216 +2049,218 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H48" s="4">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F49" s="5" t="s">
+      <c r="E50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="1" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F50" s="5" t="b">
+      <c r="F51" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H51" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D51" s="2"/>
-      <c r="F51" s="5" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D52" s="2"/>
+      <c r="F52" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
         <v>152</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F52" s="5" t="b">
+      <c r="F53" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H53" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="2"/>
-      <c r="F53" s="5" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="2"/>
+      <c r="F54" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
         <v>153</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F54" s="5" t="b">
+      <c r="F55" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H55" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="2"/>
-      <c r="F55" s="5" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="2"/>
+      <c r="F56" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
         <v>154</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F56" s="5" t="b">
+      <c r="F57" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H57" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="2"/>
-      <c r="F57" s="5" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="2"/>
+      <c r="F58" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>176</v>
-      </c>
+      <c r="H58" s="4"/>
     </row>
     <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>159</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>166</v>
@@ -2261,77 +2272,80 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>159</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="H61" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="I61" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>183</v>
+        <v>171</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H62" s="4">
-        <v>1</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="H62" s="5"/>
       <c r="I62" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>183</v>
@@ -2355,7 +2369,7 @@
     <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>183</v>
@@ -2379,7 +2393,7 @@
     <row r="65" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>183</v>
@@ -2403,7 +2417,7 @@
     <row r="66" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>183</v>
@@ -2427,7 +2441,7 @@
     <row r="67" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>183</v>
@@ -2446,6 +2460,54 @@
       </c>
       <c r="I67" s="1" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H68" s="4">
+        <v>1</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H69" s="4">
+        <v>3</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Parameter Dictionary.xlsx
+++ b/Documentation/Parameter Dictionary.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="report exhibit" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="285">
   <si>
     <t>Purpose: Dictionary for policy_simulation() function parameters</t>
   </si>
@@ -609,6 +610,282 @@
   </si>
   <si>
     <t xml:space="preserve"> '(earnings &amp; weeks &amp; ann_hours &amp; minsize)'</t>
+  </si>
+  <si>
+    <t>makelog</t>
+  </si>
+  <si>
+    <t>whether to produce log file of execution or not</t>
+  </si>
+  <si>
+    <t>Log file created</t>
+  </si>
+  <si>
+    <t>Log file not created</t>
+  </si>
+  <si>
+    <t>ext_resp_len</t>
+  </si>
+  <si>
+    <t>test parameter for alt length rand draw. To elaborate on</t>
+  </si>
+  <si>
+    <t>No longer used, to be removed</t>
+  </si>
+  <si>
+    <t>len_method</t>
+  </si>
+  <si>
+    <t>saveCSV</t>
+  </si>
+  <si>
+    <t>save CSV file of output data set</t>
+  </si>
+  <si>
+    <t>CSV of Output Dataset created</t>
+  </si>
+  <si>
+    <t>CSV of Output Dataset not created</t>
+  </si>
+  <si>
+    <t>useCSV</t>
+  </si>
+  <si>
+    <t>saveDF</t>
+  </si>
+  <si>
+    <t>use CSV versions of input files and conduct cleaning</t>
+  </si>
+  <si>
+    <t>use cleaned R dataframe files (RDF) that have already been cleaned</t>
+  </si>
+  <si>
+    <t>CSV used</t>
+  </si>
+  <si>
+    <t>Clean R dataframe file used</t>
+  </si>
+  <si>
+    <t>option that speeds up run time by using data already cleaned</t>
+  </si>
+  <si>
+    <t>runs just the cleaning operations on CSV files</t>
+  </si>
+  <si>
+    <t>clean and save CSV files as R dataframes. No simulation conducted</t>
+  </si>
+  <si>
+    <t>Cleaning CSV and saving RDF done</t>
+  </si>
+  <si>
+    <t>Normal simulation conducted</t>
+  </si>
+  <si>
+    <t>&gt;=1</t>
+  </si>
+  <si>
+    <t>impute_method</t>
+  </si>
+  <si>
+    <t>xvars</t>
+  </si>
+  <si>
+    <t>method for imputation.</t>
+  </si>
+  <si>
+    <t>leaveprogram</t>
+  </si>
+  <si>
+    <t>xvars for imputation method to use.</t>
+  </si>
+  <si>
+    <t>base_bene_level</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>bene_effect</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>proportion of pay received as part of program participation</t>
+  </si>
+  <si>
+    <t>topoff_min_length</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>dependent_allow</t>
+  </si>
+  <si>
+    <t>full_particip_needer</t>
+  </si>
+  <si>
+    <t>weekly dependent allowance for those with children</t>
+  </si>
+  <si>
+    <t>own_uptake</t>
+  </si>
+  <si>
+    <t>whether or not leave needers always take up benefits</t>
+  </si>
+  <si>
+    <t>user-supplied benefit uptake rate for a given type of leave.</t>
+  </si>
+  <si>
+    <t>waiting_period</t>
+  </si>
+  <si>
+    <t>clone_factor</t>
+  </si>
+  <si>
+    <t>how long in working days must leave takers wait to claim leave benefits</t>
+  </si>
+  <si>
+    <t>ext_base_effect</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>Whether to apply base leave extension behavior in presence of program. standard leave extension effect from ACM model</t>
+  </si>
+  <si>
+    <t>additional leave extension effect: probability of extension</t>
+  </si>
+  <si>
+    <t>extend_prop</t>
+  </si>
+  <si>
+    <t>additional leave extension effect: fixed days of extension</t>
+  </si>
+  <si>
+    <t>additional leave extension effect: proportionate extension</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>max number of leave type days benefits can be claimed in a year</t>
+  </si>
+  <si>
+    <t>maxlen_DI</t>
+  </si>
+  <si>
+    <t>maxlen_PFL</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>max number of bond, ill relative leave days benefits can be claimed in a year</t>
+  </si>
+  <si>
+    <t>maxlen_total</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>max number of matdis, own leave days benefits can be claimed in a year</t>
+  </si>
+  <si>
+    <t>week_bene_cap</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>max number of total days benefits can be claimed in a year</t>
+  </si>
+  <si>
+    <t>week_bene_cap_prop</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>max weekly benefits that can be collected</t>
+  </si>
+  <si>
+    <t>week_bene_min</t>
+  </si>
+  <si>
+    <t>option to cap max weekly benefits that can be collected at a proportion of the mean weekly wage</t>
+  </si>
+  <si>
+    <t>fmla_protect</t>
+  </si>
+  <si>
+    <t>min weekly benefits that can be collected</t>
+  </si>
+  <si>
+    <t>earnings</t>
+  </si>
+  <si>
+    <t>Indicates whether or not leaves that are extended in the presence of a program that originally were less than 12 weeks in length are constrained to be no longer than 12 weeks in the presence of the program</t>
+  </si>
+  <si>
+    <t>weeks</t>
+  </si>
+  <si>
+    <t>earnings in dollars in past 12 months</t>
+  </si>
+  <si>
+    <t>ann_hours</t>
+  </si>
+  <si>
+    <t>weeks worked in past 12 months</t>
+  </si>
+  <si>
+    <t>minsize</t>
+  </si>
+  <si>
+    <t>total number of hours worked in past 12 months</t>
+  </si>
+  <si>
+    <t>weightfactor</t>
+  </si>
+  <si>
+    <t>Number of employees working at their employer</t>
+  </si>
+  <si>
+    <t>random_seed</t>
+  </si>
+  <si>
+    <t>Multiply ACS weights by a certain number</t>
+  </si>
+  <si>
+    <t>set random seed if user wishes analyses to be replicable</t>
+  </si>
+  <si>
+    <t>own_elig_adj</t>
+  </si>
+  <si>
+    <t>user-supplied eligibility adjustment for a given type of leave.</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>intra_impute</t>
+  </si>
+  <si>
+    <t>whether to conduct intra-imputation of leave taking in the FMLA survey or not</t>
+  </si>
+  <si>
+    <t>Leave taking imputed</t>
+  </si>
+  <si>
+    <t>Leave taking not imputed</t>
   </si>
 </sst>
 </file>
@@ -663,7 +940,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -697,8 +974,19 @@
     <dxf>
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Table Style 1" pivot="0" count="1">
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -711,8 +999,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I69" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A3:I69"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I81" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A3:I81"/>
   <tableColumns count="9">
     <tableColumn id="1" name="GUI Input Label" dataDxfId="8"/>
     <tableColumn id="8" name="Location in GUI" dataDxfId="7"/>
@@ -725,6 +1013,18 @@
     <tableColumn id="7" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C61" totalsRowShown="0">
+  <autoFilter ref="A1:C61"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="impute_method"/>
+    <tableColumn id="2" name="Default Value"/>
+    <tableColumn id="3" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -991,10 +1291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView topLeftCell="D67" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,6 +1446,9 @@
       <c r="H8" s="4" t="b">
         <v>0</v>
       </c>
+      <c r="I8" s="1" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
@@ -1645,7 +1948,7 @@
         <v>52</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>85</v>
@@ -2510,10 +2813,900 @@
         <v>188</v>
       </c>
     </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F70" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H70" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="2"/>
+      <c r="F71" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F72" s="5"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F73" s="5"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F74" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="2"/>
+      <c r="F75" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F76" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H76" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F78" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="2"/>
+      <c r="F79" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F80" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H80" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="2"/>
+      <c r="F81" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H81" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C24" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28" t="s">
+        <v>245</v>
+      </c>
+      <c r="C28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>254</v>
+      </c>
+      <c r="B31" t="s">
+        <v>255</v>
+      </c>
+      <c r="C31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>257</v>
+      </c>
+      <c r="B32" t="s">
+        <v>258</v>
+      </c>
+      <c r="C32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>260</v>
+      </c>
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>262</v>
+      </c>
+      <c r="B34" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>264</v>
+      </c>
+      <c r="B35" t="s">
+        <v>239</v>
+      </c>
+      <c r="C35" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>266</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>268</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>270</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>272</v>
+      </c>
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>274</v>
+      </c>
+      <c r="B40" t="s">
+        <v>225</v>
+      </c>
+      <c r="C40" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" t="s">
+        <v>223</v>
+      </c>
+      <c r="C42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" t="s">
+        <v>223</v>
+      </c>
+      <c r="C43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44" t="s">
+        <v>223</v>
+      </c>
+      <c r="C44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" t="s">
+        <v>223</v>
+      </c>
+      <c r="C45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>277</v>
+      </c>
+      <c r="B49" t="s">
+        <v>225</v>
+      </c>
+      <c r="C49" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" t="s">
+        <v>225</v>
+      </c>
+      <c r="C50" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>179</v>
+      </c>
+      <c r="B51" t="s">
+        <v>225</v>
+      </c>
+      <c r="C51" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" t="s">
+        <v>225</v>
+      </c>
+      <c r="C52" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" t="s">
+        <v>225</v>
+      </c>
+      <c r="C53" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>182</v>
+      </c>
+      <c r="B54" t="s">
+        <v>225</v>
+      </c>
+      <c r="C54" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>189</v>
+      </c>
+      <c r="B55" t="s">
+        <v>279</v>
+      </c>
+      <c r="C55" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>193</v>
+      </c>
+      <c r="B56" t="s">
+        <v>239</v>
+      </c>
+      <c r="C56" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>197</v>
+      </c>
+      <c r="B57" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>200</v>
+      </c>
+      <c r="B58" t="s">
+        <v>239</v>
+      </c>
+      <c r="C58" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>201</v>
+      </c>
+      <c r="B59" t="s">
+        <v>223</v>
+      </c>
+      <c r="C59" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>205</v>
+      </c>
+      <c r="B60" t="s">
+        <v>280</v>
+      </c>
+      <c r="C60" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>206</v>
+      </c>
+      <c r="B61" t="s">
+        <v>280</v>
+      </c>
+      <c r="C61" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Documentation/Parameter Dictionary.xlsx
+++ b/Documentation/Parameter Dictionary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="293">
   <si>
     <t>Purpose: Dictionary for policy_simulation() function parameters</t>
   </si>
@@ -690,9 +690,6 @@
     <t>xvars</t>
   </si>
   <si>
-    <t>method for imputation.</t>
-  </si>
-  <si>
     <t>leaveprogram</t>
   </si>
   <si>
@@ -886,6 +883,33 @@
   </si>
   <si>
     <t>Leave taking not imputed</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>State selected for simulation</t>
+  </si>
+  <si>
+    <t>''</t>
+  </si>
+  <si>
+    <t>All states</t>
+  </si>
+  <si>
+    <t>[two letter abbreviation of state]</t>
+  </si>
+  <si>
+    <t>place_of_work</t>
+  </si>
+  <si>
+    <t>Whether to draw population from place of work or place of residences</t>
+  </si>
+  <si>
+    <t>Draw from place of work</t>
+  </si>
+  <si>
+    <t>Draw from place of residence</t>
   </si>
 </sst>
 </file>
@@ -921,7 +945,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -935,6 +959,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -999,8 +1029,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I81" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A3:I81"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I85" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A3:I85"/>
   <tableColumns count="9">
     <tableColumn id="1" name="GUI Input Label" dataDxfId="8"/>
     <tableColumn id="8" name="Location in GUI" dataDxfId="7"/>
@@ -1291,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView topLeftCell="D67" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2978,10 +3008,10 @@
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>50</v>
@@ -2990,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H80" s="4" t="b">
         <v>1</v>
@@ -3004,9 +3034,72 @@
         <v>42</v>
       </c>
       <c r="G81" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="H81" s="4"/>
+      <c r="D82" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="2"/>
+      <c r="F83" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F84" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="2"/>
+      <c r="F85" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H85" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3018,10 +3111,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C61"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3050,40 +3143,40 @@
         <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
         <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>221</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" t="s">
         <v>222</v>
       </c>
-      <c r="B4" t="s">
-        <v>223</v>
-      </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" t="s">
         <v>224</v>
       </c>
-      <c r="B5" t="s">
-        <v>225</v>
-      </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3091,51 +3184,51 @@
         <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" t="s">
         <v>227</v>
       </c>
-      <c r="B7" t="s">
-        <v>228</v>
-      </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C10" t="s">
         <v>233</v>
@@ -3146,10 +3239,10 @@
         <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3157,10 +3250,10 @@
         <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3168,10 +3261,10 @@
         <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3179,10 +3272,10 @@
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3190,43 +3283,43 @@
         <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C16" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C17" t="s">
-        <v>237</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3234,7 +3327,7 @@
         <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C19" t="s">
         <v>240</v>
@@ -3245,18 +3338,18 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C21" t="s">
         <v>243</v>
@@ -3267,10 +3360,10 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C22" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3278,10 +3371,10 @@
         <v>87</v>
       </c>
       <c r="B23" t="s">
+        <v>244</v>
+      </c>
+      <c r="C23" t="s">
         <v>245</v>
-      </c>
-      <c r="C23" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3289,10 +3382,10 @@
         <v>88</v>
       </c>
       <c r="B24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" t="s">
         <v>245</v>
-      </c>
-      <c r="C24" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3300,10 +3393,10 @@
         <v>89</v>
       </c>
       <c r="B25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" t="s">
         <v>245</v>
-      </c>
-      <c r="C25" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -3311,10 +3404,10 @@
         <v>90</v>
       </c>
       <c r="B26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C26" t="s">
         <v>245</v>
-      </c>
-      <c r="C26" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3322,150 +3415,150 @@
         <v>91</v>
       </c>
       <c r="B27" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" t="s">
         <v>245</v>
-      </c>
-      <c r="C27" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C28" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>247</v>
+      </c>
+      <c r="B29" t="s">
         <v>248</v>
       </c>
-      <c r="B29" t="s">
-        <v>249</v>
-      </c>
       <c r="C29" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>250</v>
+      </c>
+      <c r="B30" t="s">
         <v>251</v>
       </c>
-      <c r="B30" t="s">
-        <v>252</v>
-      </c>
       <c r="C30" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>253</v>
+      </c>
+      <c r="B31" t="s">
         <v>254</v>
       </c>
-      <c r="B31" t="s">
-        <v>255</v>
-      </c>
       <c r="C31" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>256</v>
+      </c>
+      <c r="B32" t="s">
         <v>257</v>
       </c>
-      <c r="B32" t="s">
-        <v>258</v>
-      </c>
       <c r="C32" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B33" t="s">
         <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C34" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C35" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B36" t="s">
         <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B37" t="s">
         <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B38" t="s">
         <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B39" t="s">
         <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C40" t="s">
         <v>275</v>
@@ -3479,7 +3572,7 @@
         <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>276</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3487,10 +3580,10 @@
         <v>152</v>
       </c>
       <c r="B42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3498,7 +3591,7 @@
         <v>153</v>
       </c>
       <c r="B43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C43" t="s">
         <v>110</v>
@@ -3509,7 +3602,7 @@
         <v>154</v>
       </c>
       <c r="B44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C44" t="s">
         <v>110</v>
@@ -3520,10 +3613,10 @@
         <v>160</v>
       </c>
       <c r="B45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C45" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -3534,7 +3627,7 @@
         <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -3545,7 +3638,7 @@
         <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -3556,18 +3649,18 @@
         <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>276</v>
+      </c>
+      <c r="B49" t="s">
+        <v>224</v>
+      </c>
+      <c r="C49" t="s">
         <v>277</v>
-      </c>
-      <c r="B49" t="s">
-        <v>225</v>
-      </c>
-      <c r="C49" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -3575,10 +3668,10 @@
         <v>178</v>
       </c>
       <c r="B50" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C50" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -3586,10 +3679,10 @@
         <v>179</v>
       </c>
       <c r="B51" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -3597,10 +3690,10 @@
         <v>180</v>
       </c>
       <c r="B52" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3608,10 +3701,10 @@
         <v>181</v>
       </c>
       <c r="B53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C53" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3619,10 +3712,10 @@
         <v>182</v>
       </c>
       <c r="B54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C54" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -3630,10 +3723,10 @@
         <v>189</v>
       </c>
       <c r="B55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C55" t="s">
-        <v>278</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -3641,10 +3734,10 @@
         <v>193</v>
       </c>
       <c r="B56" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C56" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -3652,10 +3745,10 @@
         <v>197</v>
       </c>
       <c r="B57" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C57" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -3663,7 +3756,7 @@
         <v>200</v>
       </c>
       <c r="B58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C58" t="s">
         <v>198</v>
@@ -3674,10 +3767,10 @@
         <v>201</v>
       </c>
       <c r="B59" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C59" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -3685,10 +3778,10 @@
         <v>205</v>
       </c>
       <c r="B60" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C60" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -3696,10 +3789,12 @@
         <v>206</v>
       </c>
       <c r="B61" t="s">
-        <v>280</v>
-      </c>
-      <c r="C61" t="s">
-        <v>207</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
